--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H2">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I2">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J2">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.47254733739241</v>
+        <v>2.517755</v>
       </c>
       <c r="N2">
-        <v>2.47254733739241</v>
+        <v>7.553265</v>
       </c>
       <c r="O2">
-        <v>0.2565755642832794</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P2">
-        <v>0.2565755642832794</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q2">
-        <v>31.03642872183908</v>
+        <v>38.040566427865</v>
       </c>
       <c r="R2">
-        <v>31.03642872183908</v>
+        <v>342.365097850785</v>
       </c>
       <c r="S2">
-        <v>0.09944209806150493</v>
+        <v>0.09907601787704261</v>
       </c>
       <c r="T2">
-        <v>0.09944209806150493</v>
+        <v>0.1220073878026366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H3">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I3">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J3">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38875992503424</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
-        <v>3.38875992503424</v>
+        <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3516506951503644</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P3">
-        <v>0.3516506951503644</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q3">
-        <v>42.53710506496077</v>
+        <v>55.71753796125199</v>
       </c>
       <c r="R3">
-        <v>42.53710506496077</v>
+        <v>501.457841651268</v>
       </c>
       <c r="S3">
-        <v>0.136290776591377</v>
+        <v>0.1451153940512874</v>
       </c>
       <c r="T3">
-        <v>0.136290776591377</v>
+        <v>0.1787026824202872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H4">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I4">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J4">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.77541455205809</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N4">
-        <v>3.77541455205809</v>
+        <v>0.000111</v>
       </c>
       <c r="O4">
-        <v>0.3917737405663562</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P4">
-        <v>0.3917737405663562</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q4">
-        <v>47.39055259662695</v>
+        <v>0.0005590301509999999</v>
       </c>
       <c r="R4">
-        <v>47.39055259662695</v>
+        <v>0.005031271359</v>
       </c>
       <c r="S4">
-        <v>0.1518414383542333</v>
+        <v>1.455984661514157E-06</v>
       </c>
       <c r="T4">
-        <v>0.1518414383542333</v>
+        <v>1.792975626579057E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3237161220429</v>
+        <v>15.108923</v>
       </c>
       <c r="H5">
-        <v>10.3237161220429</v>
+        <v>45.326769</v>
       </c>
       <c r="I5">
-        <v>0.3187600692409899</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J5">
-        <v>0.3187600692409899</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.47254733739241</v>
+        <v>0.039625</v>
       </c>
       <c r="N5">
-        <v>2.47254733739241</v>
+        <v>0.118875</v>
       </c>
       <c r="O5">
-        <v>0.2565755642832794</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P5">
-        <v>0.2565755642832794</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q5">
-        <v>25.52587680955227</v>
+        <v>0.598691073875</v>
       </c>
       <c r="R5">
-        <v>25.52587680955227</v>
+        <v>5.388219664875</v>
       </c>
       <c r="S5">
-        <v>0.08178604463648419</v>
+        <v>0.001559280870608067</v>
       </c>
       <c r="T5">
-        <v>0.08178604463648419</v>
+        <v>0.001920179978464734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3237161220429</v>
+        <v>15.108923</v>
       </c>
       <c r="H6">
-        <v>10.3237161220429</v>
+        <v>45.326769</v>
       </c>
       <c r="I6">
-        <v>0.3187600692409899</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J6">
-        <v>0.3187600692409899</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.38875992503424</v>
+        <v>3.8082785</v>
       </c>
       <c r="N6">
-        <v>3.38875992503424</v>
+        <v>7.616557</v>
       </c>
       <c r="O6">
-        <v>0.3516506951503644</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P6">
-        <v>0.3516506951503644</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q6">
-        <v>34.98459547180887</v>
+        <v>57.5389866190555</v>
       </c>
       <c r="R6">
-        <v>34.98459547180887</v>
+        <v>345.233919714333</v>
       </c>
       <c r="S6">
-        <v>0.1120921999347724</v>
+        <v>0.1498593265614633</v>
       </c>
       <c r="T6">
-        <v>0.1120921999347724</v>
+        <v>0.1230297392743253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H7">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J7">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77541455205809</v>
+        <v>2.517755</v>
       </c>
       <c r="N7">
-        <v>3.77541455205809</v>
+        <v>7.553265</v>
       </c>
       <c r="O7">
-        <v>0.3917737405663562</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P7">
-        <v>0.3917737405663562</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q7">
-        <v>38.97630807847747</v>
+        <v>28.70950874760333</v>
       </c>
       <c r="R7">
-        <v>38.97630807847747</v>
+        <v>258.3855787284299</v>
       </c>
       <c r="S7">
-        <v>0.1248818246697333</v>
+        <v>0.07477343449426392</v>
       </c>
       <c r="T7">
-        <v>0.1248818246697333</v>
+        <v>0.09207991616092814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.46517081332432</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H8">
-        <v>1.46517081332432</v>
+        <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.04523932510193029</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J8">
-        <v>0.04523932510193029</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.47254733739241</v>
+        <v>3.687724</v>
       </c>
       <c r="N8">
-        <v>2.47254733739241</v>
+        <v>11.063172</v>
       </c>
       <c r="O8">
-        <v>0.2565755642832794</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P8">
-        <v>0.2565755642832794</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q8">
-        <v>3.622704193310119</v>
+        <v>42.05045544016266</v>
       </c>
       <c r="R8">
-        <v>3.622704193310119</v>
+        <v>378.454098961464</v>
       </c>
       <c r="S8">
-        <v>0.01160730536582249</v>
+        <v>0.1095197066223381</v>
       </c>
       <c r="T8">
-        <v>0.01160730536582249</v>
+        <v>0.1348682920874519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.46517081332432</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H9">
-        <v>1.46517081332432</v>
+        <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.04523932510193029</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J9">
-        <v>0.04523932510193029</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.38875992503424</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N9">
-        <v>3.38875992503424</v>
+        <v>0.000111</v>
       </c>
       <c r="O9">
-        <v>0.3516506951503644</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P9">
-        <v>0.3516506951503644</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q9">
-        <v>4.965112135523279</v>
+        <v>0.0004219043646666666</v>
       </c>
       <c r="R9">
-        <v>4.965112135523279</v>
+        <v>0.003797139282</v>
       </c>
       <c r="S9">
-        <v>0.01590844012022712</v>
+        <v>1.098842848604318E-06</v>
       </c>
       <c r="T9">
-        <v>0.01590844012022712</v>
+        <v>1.353172527888671E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46517081332432</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H10">
-        <v>1.46517081332432</v>
+        <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.04523932510193029</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J10">
-        <v>0.04523932510193029</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.77541455205809</v>
+        <v>0.039625</v>
       </c>
       <c r="N10">
-        <v>3.77541455205809</v>
+        <v>0.118875</v>
       </c>
       <c r="O10">
-        <v>0.3917737405663562</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P10">
-        <v>0.3917737405663562</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q10">
-        <v>5.531627209875425</v>
+        <v>0.4518367689166666</v>
       </c>
       <c r="R10">
-        <v>5.531627209875425</v>
+        <v>4.06653092025</v>
       </c>
       <c r="S10">
-        <v>0.01772357961588068</v>
+        <v>0.00117680129394449</v>
       </c>
       <c r="T10">
-        <v>0.01772357961588068</v>
+        <v>0.0014491746329078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.42225596032678</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H11">
-        <v>1.42225596032678</v>
+        <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.04391426527354595</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J11">
-        <v>0.04391426527354595</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.47254733739241</v>
+        <v>3.8082785</v>
       </c>
       <c r="N11">
-        <v>2.47254733739241</v>
+        <v>7.616557</v>
       </c>
       <c r="O11">
-        <v>0.2565755642832794</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P11">
-        <v>0.2565755642832794</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q11">
-        <v>3.516595187796465</v>
+        <v>43.42511678422233</v>
       </c>
       <c r="R11">
-        <v>3.516595187796465</v>
+        <v>260.550700705334</v>
       </c>
       <c r="S11">
-        <v>0.01126732739264567</v>
+        <v>0.1130999890599616</v>
       </c>
       <c r="T11">
-        <v>0.01126732739264567</v>
+        <v>0.09285149269818156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.42225596032678</v>
+        <v>2.005454</v>
       </c>
       <c r="H12">
-        <v>1.42225596032678</v>
+        <v>6.016362</v>
       </c>
       <c r="I12">
-        <v>0.04391426527354595</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J12">
-        <v>0.04391426527354595</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.38875992503424</v>
+        <v>2.517755</v>
       </c>
       <c r="N12">
-        <v>3.38875992503424</v>
+        <v>7.553265</v>
       </c>
       <c r="O12">
-        <v>0.3516506951503644</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P12">
-        <v>0.3516506951503644</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q12">
-        <v>4.81968400149648</v>
+        <v>5.049241835769999</v>
       </c>
       <c r="R12">
-        <v>4.81968400149648</v>
+        <v>45.44317652193</v>
       </c>
       <c r="S12">
-        <v>0.01544248191045994</v>
+        <v>0.01315066575927262</v>
       </c>
       <c r="T12">
-        <v>0.01544248191045994</v>
+        <v>0.01619441729224173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.42225596032678</v>
+        <v>2.005454</v>
       </c>
       <c r="H13">
-        <v>1.42225596032678</v>
+        <v>6.016362</v>
       </c>
       <c r="I13">
-        <v>0.04391426527354595</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J13">
-        <v>0.04391426527354595</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.77541455205809</v>
+        <v>3.687724</v>
       </c>
       <c r="N13">
-        <v>3.77541455205809</v>
+        <v>11.063172</v>
       </c>
       <c r="O13">
-        <v>0.3917737405663562</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P13">
-        <v>0.3917737405663562</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q13">
-        <v>5.369605849369078</v>
+        <v>7.395560846695999</v>
       </c>
       <c r="R13">
-        <v>5.369605849369078</v>
+        <v>66.560047620264</v>
       </c>
       <c r="S13">
-        <v>0.01720445597044034</v>
+        <v>0.0192616143097513</v>
       </c>
       <c r="T13">
-        <v>0.01720445597044034</v>
+        <v>0.02371975879885645</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.6235526902882</v>
+        <v>2.005454</v>
       </c>
       <c r="H14">
-        <v>6.6235526902882</v>
+        <v>6.016362</v>
       </c>
       <c r="I14">
-        <v>0.2045120273764186</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J14">
-        <v>0.2045120273764186</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.47254733739241</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N14">
-        <v>2.47254733739241</v>
+        <v>0.000111</v>
       </c>
       <c r="O14">
-        <v>0.2565755642832794</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P14">
-        <v>0.2565755642832794</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q14">
-        <v>16.37704756845042</v>
+        <v>7.420179799999999E-05</v>
       </c>
       <c r="R14">
-        <v>16.37704756845042</v>
+        <v>0.000667816182</v>
       </c>
       <c r="S14">
-        <v>0.05247278882682208</v>
+        <v>1.932573396113153E-07</v>
       </c>
       <c r="T14">
-        <v>0.05247278882682208</v>
+        <v>2.379871908954382E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.6235526902882</v>
+        <v>2.005454</v>
       </c>
       <c r="H15">
-        <v>6.6235526902882</v>
+        <v>6.016362</v>
       </c>
       <c r="I15">
-        <v>0.2045120273764186</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J15">
-        <v>0.2045120273764186</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>3.38875992503424</v>
+        <v>0.039625</v>
       </c>
       <c r="N15">
-        <v>3.38875992503424</v>
+        <v>0.118875</v>
       </c>
       <c r="O15">
-        <v>0.3516506951503644</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P15">
-        <v>0.3516506951503644</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q15">
-        <v>22.44562991820138</v>
+        <v>0.07946611475</v>
       </c>
       <c r="R15">
-        <v>22.44562991820138</v>
+        <v>0.7151950327500001</v>
       </c>
       <c r="S15">
-        <v>0.07191679659352795</v>
+        <v>0.000206968164381037</v>
       </c>
       <c r="T15">
-        <v>0.07191679659352795</v>
+        <v>0.0002548714172765335</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.6235526902882</v>
+        <v>2.005454</v>
       </c>
       <c r="H16">
-        <v>6.6235526902882</v>
+        <v>6.016362</v>
       </c>
       <c r="I16">
-        <v>0.2045120273764186</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J16">
-        <v>0.2045120273764186</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.77541455205809</v>
+        <v>3.8082785</v>
       </c>
       <c r="N16">
-        <v>3.77541455205809</v>
+        <v>7.616557</v>
       </c>
       <c r="O16">
-        <v>0.3917737405663562</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P16">
-        <v>0.3917737405663562</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q16">
-        <v>25.00665721323758</v>
+        <v>7.637327350939</v>
       </c>
       <c r="R16">
-        <v>25.00665721323758</v>
+        <v>45.823964105634</v>
       </c>
       <c r="S16">
-        <v>0.08012244195606855</v>
+        <v>0.01989129111916136</v>
       </c>
       <c r="T16">
-        <v>0.08012244195606855</v>
+        <v>0.01633011715968456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.585578666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.756736</v>
+      </c>
+      <c r="I17">
+        <v>0.04151673256893677</v>
+      </c>
+      <c r="J17">
+        <v>0.04467030783532042</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.517755</v>
+      </c>
+      <c r="N17">
+        <v>7.553265</v>
+      </c>
+      <c r="O17">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P17">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q17">
+        <v>3.992098615893333</v>
+      </c>
+      <c r="R17">
+        <v>35.92888754304</v>
+      </c>
+      <c r="S17">
+        <v>0.01039735395594537</v>
+      </c>
+      <c r="T17">
+        <v>0.01280384520296963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.585578666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.756736</v>
+      </c>
+      <c r="I18">
+        <v>0.04151673256893677</v>
+      </c>
+      <c r="J18">
+        <v>0.04467030783532042</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.687724</v>
+      </c>
+      <c r="N18">
+        <v>11.063172</v>
+      </c>
+      <c r="O18">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P18">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q18">
+        <v>5.847176502954667</v>
+      </c>
+      <c r="R18">
+        <v>52.624588526592</v>
+      </c>
+      <c r="S18">
+        <v>0.01522887323025263</v>
+      </c>
+      <c r="T18">
+        <v>0.01875363061428771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.585578666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.756736</v>
+      </c>
+      <c r="I19">
+        <v>0.04151673256893677</v>
+      </c>
+      <c r="J19">
+        <v>0.04467030783532042</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N19">
+        <v>0.000111</v>
+      </c>
+      <c r="O19">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P19">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q19">
+        <v>5.866641066666666E-05</v>
+      </c>
+      <c r="R19">
+        <v>0.000527997696</v>
+      </c>
+      <c r="S19">
+        <v>1.527956836030428E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.881605924761846E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.585578666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.756736</v>
+      </c>
+      <c r="I20">
+        <v>0.04151673256893677</v>
+      </c>
+      <c r="J20">
+        <v>0.04467030783532042</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.039625</v>
+      </c>
+      <c r="N20">
+        <v>0.118875</v>
+      </c>
+      <c r="O20">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P20">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q20">
+        <v>0.06282855466666667</v>
+      </c>
+      <c r="R20">
+        <v>0.5654569920000001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001636359179127181</v>
+      </c>
+      <c r="T20">
+        <v>0.0002015098236991572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.585578666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.756736</v>
+      </c>
+      <c r="I21">
+        <v>0.04151673256893677</v>
+      </c>
+      <c r="J21">
+        <v>0.04467030783532042</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.8082785</v>
+      </c>
+      <c r="N21">
+        <v>7.616557</v>
+      </c>
+      <c r="O21">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P21">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q21">
+        <v>6.038325146325334</v>
+      </c>
+      <c r="R21">
+        <v>36.229950877952</v>
+      </c>
+      <c r="S21">
+        <v>0.01572671666914244</v>
+      </c>
+      <c r="T21">
+        <v>0.01291113403377145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.08854</v>
+      </c>
+      <c r="H22">
+        <v>16.17708</v>
+      </c>
+      <c r="I22">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J22">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.517755</v>
+      </c>
+      <c r="N22">
+        <v>7.553265</v>
+      </c>
+      <c r="O22">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P22">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q22">
+        <v>20.3649620277</v>
+      </c>
+      <c r="R22">
+        <v>122.1897721662</v>
+      </c>
+      <c r="S22">
+        <v>0.05304020237836769</v>
+      </c>
+      <c r="T22">
+        <v>0.04354431865801589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.08854</v>
+      </c>
+      <c r="H23">
+        <v>16.17708</v>
+      </c>
+      <c r="I23">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J23">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.687724</v>
+      </c>
+      <c r="N23">
+        <v>11.063172</v>
+      </c>
+      <c r="O23">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P23">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q23">
+        <v>29.82830308296</v>
+      </c>
+      <c r="R23">
+        <v>178.96981849776</v>
+      </c>
+      <c r="S23">
+        <v>0.07768731559487067</v>
+      </c>
+      <c r="T23">
+        <v>0.06377881445129212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.08854</v>
+      </c>
+      <c r="H24">
+        <v>16.17708</v>
+      </c>
+      <c r="I24">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J24">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N24">
+        <v>0.000111</v>
+      </c>
+      <c r="O24">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P24">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q24">
+        <v>0.00029927598</v>
+      </c>
+      <c r="R24">
+        <v>0.00179565588</v>
+      </c>
+      <c r="S24">
+        <v>7.79459275425768E-07</v>
+      </c>
+      <c r="T24">
+        <v>6.399112663251936E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.08854</v>
+      </c>
+      <c r="H25">
+        <v>16.17708</v>
+      </c>
+      <c r="I25">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J25">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.039625</v>
+      </c>
+      <c r="N25">
+        <v>0.118875</v>
+      </c>
+      <c r="O25">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P25">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q25">
+        <v>0.3205083975</v>
+      </c>
+      <c r="R25">
+        <v>1.923050385</v>
+      </c>
+      <c r="S25">
+        <v>0.0008347587510471908</v>
+      </c>
+      <c r="T25">
+        <v>0.0006853103764361027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.08854</v>
+      </c>
+      <c r="H26">
+        <v>16.17708</v>
+      </c>
+      <c r="I26">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J26">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.8082785</v>
+      </c>
+      <c r="N26">
+        <v>7.616557</v>
+      </c>
+      <c r="O26">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P26">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q26">
+        <v>30.80341297839</v>
+      </c>
+      <c r="R26">
+        <v>123.21365191356</v>
+      </c>
+      <c r="S26">
+        <v>0.08022697297917651</v>
+      </c>
+      <c r="T26">
+        <v>0.04390919490908124</v>
       </c>
     </row>
   </sheetData>
